--- a/outcome/appendix/data/Table S4.xlsx
+++ b/outcome/appendix/data/Table S4.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
   <si>
     <t xml:space="preserve">diseasename</t>
   </si>
@@ -35,6 +38,9 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
+    <t xml:space="preserve">Intestinal infectious diseases</t>
+  </si>
+  <si>
     <t xml:space="preserve">HAV</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
     <t xml:space="preserve">Other infectious diarrhea</t>
   </si>
   <si>
+    <t xml:space="preserve">Natural focal diseases</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brucellosis</t>
   </si>
   <si>
@@ -86,6 +95,9 @@
     <t xml:space="preserve">Typhus</t>
   </si>
   <si>
+    <t xml:space="preserve">Blood borne and sexually transmitted diseases</t>
+  </si>
+  <si>
     <t xml:space="preserve">AIDS</t>
   </si>
   <si>
@@ -99,6 +111,9 @@
   </si>
   <si>
     <t xml:space="preserve">Syphilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory infectious diseases</t>
   </si>
   <si>
     <t xml:space="preserve">Pertussis</t>
@@ -467,625 +482,709 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.571670988042684</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.432149317201863</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.733747854345092</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.998580188538495</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.994896023125164</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.03604481449005</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.774504388892013</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.701063052126467</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.848653828513171</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.830153510982502</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.574120662205538</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.902821760348717</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.517386779400253</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.47081523565042</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.59214889909453</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.946488968669846</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.824320960561779</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1.00241950334287</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>84</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>0.0008</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.738887514951184</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.513364768886094</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.990718351142108</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.1875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.885428842302211</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.753771377160211</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.893463832236277</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.800205655416313</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.717347294372985</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.855759022462512</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.44764471814725</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.437044331273706</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.625128230333986</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.610223958933282</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.598104882762475</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.668383502458699</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.708502313146194</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.600201181982902</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.753738041939324</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="n">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.560733672806781</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.459985000841333</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.667571989012071</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.695555188235748</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.613685927001035</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.796928419022221</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.72948730771278</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.615245692835158</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.781377201421056</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.116784509440063</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.0908106372786922</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.264844945409733</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.101373937088424</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0688792413611804</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.376642583260407</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.458021806386908</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.268933413730352</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.771648553468136</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>27</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.457018288558315</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.278400210602547</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.704353990929363</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.436683602266945</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>0.406375669365419</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.667243889045873</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.796010093622508</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>0.706990681887438</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.930806223092774</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>58</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>0.0001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n">
         <v>1.36914474270639</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>1.2147657626833</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>2.67770951260465</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>14</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>0.125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.994422637970467</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>0.660157569627373</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1.00258726826923</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>2</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="n">
         <v>1.61577247050261</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>1.39128488405837</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>2.03693435714713</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>493</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.00502030939619079</v>
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00327594917949174</v>
+        <v>0.0045790041927925</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00619236321675808</v>
+        <v>0.00287747180823453</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.00563609924167509</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0251346908667884</v>
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0247252229231133</v>
+        <v>0.0402168904302216</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0689786891870664</v>
+        <v>0.0385396815738532</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.100550892170354</v>
       </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.00377008465383589</v>
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00121167323105496</v>
+        <v>0.00657762779859181</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0124808557048565</v>
+        <v>0.00124161764512354</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.0310879164249897</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1094,21 +1193,24 @@
         <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="n">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.406299242908842</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>0.343934661699192</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>0.436857727175606</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.0625</v>
       </c>
     </row>
@@ -1117,21 +1219,24 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="n">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="n">
         <v>0.59732345444783</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>0.56764465151598</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>0.635596096935594</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1140,504 +1245,570 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="n">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.679078429682771</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>0.554719558708122</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>0.792524566236803</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>45</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="n">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.161496469413853</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>0.0600160621668154</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>0.184409487053694</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="n">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.259869414665141</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>0.129934707332571</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>0.316418493421887</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="n">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.404491951498943</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>0.145366498179233</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>0.858228220554002</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>45</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>0.0001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="n">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.503020508410972</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>0.339441075330648</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>0.591799426150852</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="n">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.554948362820675</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>0.481140176087429</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>1.03382448697742</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>2</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="n">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.26955201280678</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>0.218200871365179</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>0.337237441051702</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="n">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="n">
         <v>0.530581738161699</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>0.319565600991716</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>0.816205998379486</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="n">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="n">
         <v>0.543412042371978</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>0.408193576346947</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>0.587845567208588</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="n">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.703234662638964</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>0.652440094479312</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>0.856579261352538</v>
       </c>
-      <c r="F40" t="n">
-        <v>10</v>
-      </c>
       <c r="G40" t="n">
+        <v>10</v>
+      </c>
+      <c r="H40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="n">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.869311589194748</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>0.53374293330529</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>0.985600763268367</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>2</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>0.1875</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="n">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.712945421998919</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>0.564370665113816</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>0.833680119103832</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="n">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="n">
         <v>1.00324714141775</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>0.75700737750292</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>1.23034606417345</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>247</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>0.9923</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="n">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.622202149448261</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>0.4890816130566</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>0.782852151219082</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" t="n">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="n">
         <v>0.788568076105799</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>0.696072220929231</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>0.798473499808605</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="n">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.745263410182854</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>0.681253431246504</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>0.834358913851196</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>6</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="n">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="n">
         <v>0.777082407530415</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>0.619023309362386</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>0.879801579334435</v>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
       <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="n">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.488911144113189</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>0.461486174352705</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>0.656842393616592</v>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="n">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="n">
         <v>0.998264248638324</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>0.90663810256026</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>1.1082187000952</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>252</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>0.9461</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.786313436289221</v>
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>0.599845833048127</v>
+        <v>0.791335499488849</v>
       </c>
       <c r="E50" t="n">
-        <v>0.976961526977468</v>
+        <v>0.604907985327721</v>
       </c>
       <c r="F50" t="n">
+        <v>0.981122928793031</v>
+      </c>
+      <c r="G50" t="n">
         <v>2</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>0.1875</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.72155709557447</v>
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>0.606704226154026</v>
+        <v>0.721507058671165</v>
       </c>
       <c r="E51" t="n">
-        <v>0.751535713034947</v>
+        <v>0.607340033067143</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>0.751362965796508</v>
       </c>
       <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.912472833078391</v>
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>0.891475073236836</v>
+        <v>0.914058426350994</v>
       </c>
       <c r="E52" t="n">
-        <v>0.958951815641528</v>
+        <v>0.892189570045229</v>
       </c>
       <c r="F52" t="n">
-        <v>11</v>
+        <v>0.963659536842778</v>
       </c>
       <c r="G52" t="n">
+        <v>12</v>
+      </c>
+      <c r="H52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1646,21 +1817,24 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" t="n">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="n">
         <v>0.615243053624769</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>0.482874968876554</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>0.819664078568323</v>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
       <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.0625</v>
       </c>
     </row>
@@ -1669,21 +1843,24 @@
         <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="n">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="n">
         <v>0.653892736941171</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>0.555005315910908</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>0.694862400360013</v>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1692,366 +1869,414 @@
         <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="n">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="n">
         <v>0.853549790319579</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>0.790727389052817</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>0.910191241578351</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>1</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" t="n">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.538629685637765</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>0.439443406533295</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>0.708469912604547</v>
       </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
       <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" t="n">
+        <v>32</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.737375960828443</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>0.611030752858715</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>0.767096803157654</v>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
       <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="n">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="n">
         <v>0.743517986302812</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>0.684000756335101</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>0.815858114926203</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
       <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="n">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.328161676607894</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>0.186764830649947</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>0.486149270520858</v>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
       <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" t="n">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="n">
         <v>0.420909262572524</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>0.349174853078021</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>0.60524521531303</v>
       </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
       <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" t="n">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="n">
         <v>0.183632055797449</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>0.0976784339923574</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>0.867713238661626</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>5</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" t="n">
+        <v>35</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="n">
         <v>0.0897982878911146</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>0.0714532512300131</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>0.115146603246279</v>
       </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
       <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" t="n">
+        <v>35</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="n">
         <v>0.138653476673701</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>0.103991909766477</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>0.427856176711901</v>
       </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
       <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="n">
+        <v>35</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="n">
         <v>0.239207647182084</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>0.202648219193854</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>0.285105115243123</v>
       </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.676645378478687</v>
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
       </c>
       <c r="D65" t="n">
-        <v>0.588452744402723</v>
+        <v>0.705243657682331</v>
       </c>
       <c r="E65" t="n">
-        <v>0.779732114214668</v>
+        <v>0.607445238213682</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>0.809120561044481</v>
       </c>
       <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.721060266266831</v>
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>0.635170540723646</v>
+        <v>0.72213548022751</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7277223404968</v>
+        <v>0.637575953884333</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>0.730707164498828</v>
       </c>
       <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.844251158295575</v>
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
       </c>
       <c r="D67" t="n">
-        <v>0.753432386698434</v>
+        <v>0.87159887228293</v>
       </c>
       <c r="E67" t="n">
-        <v>0.905319432791295</v>
+        <v>0.777022894364515</v>
       </c>
       <c r="F67" t="n">
+        <v>0.909789215360841</v>
+      </c>
+      <c r="G67" t="n">
         <v>1</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="n">
+        <v>37</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="n">
         <v>0.33063659491516</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>0.142341956269002</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>0.35142339596867</v>
       </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.0625</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" t="n">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="n">
         <v>0.60269298143759</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>0.448801014366485</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>0.683078612140732</v>
       </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" t="n">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="n">
         <v>0.395403911907312</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>0.310421266987038</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>0.488757559161828</v>
       </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
       <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2060,21 +2285,24 @@
         <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="n">
+        <v>38</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="n">
         <v>0.0419082393785882</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>0.0232214523335037</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>0.0425724116176644</v>
       </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
       <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.0625</v>
       </c>
     </row>
@@ -2083,21 +2311,24 @@
         <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" t="n">
+        <v>38</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="n">
         <v>0.194439444647929</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>0.116918315138368</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>0.445258848817276</v>
       </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
       <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2106,21 +2337,24 @@
         <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="n">
+        <v>38</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="n">
         <v>0.0409786849527389</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>0.0201523213745289</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>0.0924672377468072</v>
       </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
       <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
         <v>0</v>
       </c>
     </row>
